--- a/medicine/Enfance/Nikki_Giovanni/Nikki_Giovanni.xlsx
+++ b/medicine/Enfance/Nikki_Giovanni/Nikki_Giovanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yolande Cornelia Giovanni, Jr., connue sous le nom de Nikki Giovanni, née le 7 juin 1943 à Knoxville dans l'État du Tennessee, est une écrivaine, poète, éditrice et une universitaire américaine. Elle est également connue pour être une des figures du Black Arts Movement et une militante du mouvement américain des droits civiques.
 </t>
@@ -511,27 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nikki Giovanni née Yolande Cornelia Giovanni, née le 7 juin 1943 à Knoxville, dans le Tennessee, de Jones Giovanni, dit Gus, et de Yolande Cornelia est une poète et écrivaine afro-américaine de premier plan surnommée la "Princesse de la poésie noire" et qui s'est fait également connaître pour son implication dans le Black Arts Movement de la fin des années 1960[1],[2],[3],[4],[5],[6],[7],[8],[9],[10],[11],[12],[13].
-Jeunesse et formation
-Nikki Giovanni a grandi dans les Lincoln Heights, un quartier d'afro-américains, dans la banlieue de Cincinnati dans l'Ohio[14]. C'est sa sœur aînée Gary qui lui donne le diminutif de « Nikki ». Elle et sa sœur Gary passent régulièrement des week-ends chez leurs grands parents à Knoxville, c'est sa grand mère Louvenia[15],[16] qui lui donne le gout de la lecture et qui la soutiendra pour réaliser ses projets littéraires. Après ses études secondaires à la  Lockland High School (en) puis à la Austin High School[17], elle entre à l'université Fisk de Nashville où elle obtiendra son Bachelor of Arts (licence) en 1967 avec la mention magna cum laude. Nikki y dirigera le magazine littéraire des étudiants Elan, participe au séminaire de création littéraire animé par John Oliver Killens (en)[18], et s'engage dans le comité de coordination des étudiants pour la paix (cf. guerre du Viet-Nam) - le SNCC (Student Nonviolent Coordinating Committee)-.
-Carrière
-Les premiers pas dans la vie culturelle
-De retour chez elle, elle organise à Cincinnati le premier Festival des arts noirs (Black Arts Festival). Elle fait la connaissance de James Baldwin et de Sonia Sanchez, avec qui elle nouera des relations d'amitiés durables.
-La même année en 1967, elle perd sa grand-mère, Louvenia Watson, qui la marque et pour exprimer sa souffrance elle se lance dans l'écriture, des poèmes inspirés par son deuil sont inclus dans son recueil de poèmes Black Feelings, Black Talk qui sera publié en 1968..
-Comme beaucoup d'afro-américains, les assassinats de Malcolm X en 1965 puis de Martin Luther King.Jr en 1968, sont des déclencheurs d'une radicalisation et d'un rapprochement d'avec les Black Panthers.
-En 1968, Nikki Giovianni obtient une bourse de la Fondation Ford[19],[20] qui lui permet de poursuivre ses études à l'École de l'action sociale (School of Social Work) de l'université de Pennsylvanie, puis ayant reçu une bourse de la National Foundation of the Arts - de la National Endowment for the Arts -  elle entre à l'université Columbia de New York[21] où elle obtiendra un Master of Fine Arts[22].
-En 1967[23], alors qu'elle est encore étudiante à l'université Columbia de New York, elle publie son premier recueil de poèmes Black Feeling, Black Talk, qui fut vendue à plus de dix mille exemplaires[7], suivi de Black Judgement[24]. Le succès de sa première publication lui permet de faire ses premiers pas d'enseignante au Livingston College de l'Université Rutgers.
-Une figure de la culture afro-américaine
-Dès 1970 elle se fait connaître en intervenant régulièrement sur l'émission de télévision Soul ![25] elle y rencontre des personnalités afro-américaines diverses comme Carmen De Lavallade, Muhammad Ali[26], James Baldwin, Jesse Jackson, Harry Belafonte, Sidney Poitier, Gladys Knight, Miriam Makeba, Stevie Wonder, Linda Hopkins, etc.
-Les années 1970 sont pour Nikki Giovanni une décennie fertile, elle publie plusieurs enregistrements sonore de sa poésie, elle lance plusieurs recueils de poésie pour la jeunesse, des recueils de poésie (The Women and the Men, Cotton Candy on a Rainy Day, etc.). Dans Gemini (1970) elle publie son premier essai sur l'expérience de la condition des poètes afro-américains. Elle prolonge sa réflexion existentielle avec la publications de deux échanges l'un avec James Baldwin (A Dialogue: James Baldwin et Nikki Giovanni, 1973) et l'autre avec Margaret Walker (A Poetic Equation: Coversations Between Nikki Giovanni and Margaret Walker, 1974). Toujours en 1970, elle fonde la maison d’édition NikTom, Ltd[27].
-La reconnaissance nationale
-Elle est acceptée comme membre de la sororité Delta Sigma Theta[28],[29],[30] et nommée membre à vie du National Council of Negro Women (en)[31].
-Nikki Giovanni est régulièrement invitée à donner des conférences ou y animer des ateliers de création littéraire dans diverses universités américaines[32] : la Texas Christian University, l'Université de l'Oregon, l'Université du Minnesota, l'Université de la Californie du Sud, l'Université de l'Indiana, la Johnson &amp; Wales University (en), etc. En 1987 elle devient professeur de littérature anglaise à la Virginia Tech[33],[34].
-Vie privée
-Le 31 août 1969, elle donne naissance à son fils Thomas Watson Giovanni.
-En 1995, les médecins annoncent qu'elle est atteinte d'un cancer du poumon[14], après de nombreuses interventions, Nikki s'en sort[35] et écrit  Blues: For All the Changes en 1999, qui contient des poèmes sur sa lutte contre le cancer[36].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nikki Giovanni née Yolande Cornelia Giovanni, née le 7 juin 1943 à Knoxville, dans le Tennessee, de Jones Giovanni, dit Gus, et de Yolande Cornelia est une poète et écrivaine afro-américaine de premier plan surnommée la "Princesse de la poésie noire" et qui s'est fait également connaître pour son implication dans le Black Arts Movement de la fin des années 1960.
 </t>
         </is>
       </c>
@@ -557,12 +553,218 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nikki Giovanni a grandi dans les Lincoln Heights, un quartier d'afro-américains, dans la banlieue de Cincinnati dans l'Ohio. C'est sa sœur aînée Gary qui lui donne le diminutif de « Nikki ». Elle et sa sœur Gary passent régulièrement des week-ends chez leurs grands parents à Knoxville, c'est sa grand mère Louvenia, qui lui donne le gout de la lecture et qui la soutiendra pour réaliser ses projets littéraires. Après ses études secondaires à la  Lockland High School (en) puis à la Austin High School, elle entre à l'université Fisk de Nashville où elle obtiendra son Bachelor of Arts (licence) en 1967 avec la mention magna cum laude. Nikki y dirigera le magazine littéraire des étudiants Elan, participe au séminaire de création littéraire animé par John Oliver Killens (en), et s'engage dans le comité de coordination des étudiants pour la paix (cf. guerre du Viet-Nam) - le SNCC (Student Nonviolent Coordinating Committee)-.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Les premiers pas dans la vie culturelle</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De retour chez elle, elle organise à Cincinnati le premier Festival des arts noirs (Black Arts Festival). Elle fait la connaissance de James Baldwin et de Sonia Sanchez, avec qui elle nouera des relations d'amitiés durables.
+La même année en 1967, elle perd sa grand-mère, Louvenia Watson, qui la marque et pour exprimer sa souffrance elle se lance dans l'écriture, des poèmes inspirés par son deuil sont inclus dans son recueil de poèmes Black Feelings, Black Talk qui sera publié en 1968..
+Comme beaucoup d'afro-américains, les assassinats de Malcolm X en 1965 puis de Martin Luther King.Jr en 1968, sont des déclencheurs d'une radicalisation et d'un rapprochement d'avec les Black Panthers.
+En 1968, Nikki Giovianni obtient une bourse de la Fondation Ford, qui lui permet de poursuivre ses études à l'École de l'action sociale (School of Social Work) de l'université de Pennsylvanie, puis ayant reçu une bourse de la National Foundation of the Arts - de la National Endowment for the Arts -  elle entre à l'université Columbia de New York où elle obtiendra un Master of Fine Arts.
+En 1967, alors qu'elle est encore étudiante à l'université Columbia de New York, elle publie son premier recueil de poèmes Black Feeling, Black Talk, qui fut vendue à plus de dix mille exemplaires, suivi de Black Judgement. Le succès de sa première publication lui permet de faire ses premiers pas d'enseignante au Livingston College de l'Université Rutgers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Une figure de la culture afro-américaine</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1970 elle se fait connaître en intervenant régulièrement sur l'émission de télévision Soul ! elle y rencontre des personnalités afro-américaines diverses comme Carmen De Lavallade, Muhammad Ali, James Baldwin, Jesse Jackson, Harry Belafonte, Sidney Poitier, Gladys Knight, Miriam Makeba, Stevie Wonder, Linda Hopkins, etc.
+Les années 1970 sont pour Nikki Giovanni une décennie fertile, elle publie plusieurs enregistrements sonore de sa poésie, elle lance plusieurs recueils de poésie pour la jeunesse, des recueils de poésie (The Women and the Men, Cotton Candy on a Rainy Day, etc.). Dans Gemini (1970) elle publie son premier essai sur l'expérience de la condition des poètes afro-américains. Elle prolonge sa réflexion existentielle avec la publications de deux échanges l'un avec James Baldwin (A Dialogue: James Baldwin et Nikki Giovanni, 1973) et l'autre avec Margaret Walker (A Poetic Equation: Coversations Between Nikki Giovanni and Margaret Walker, 1974). Toujours en 1970, elle fonde la maison d’édition NikTom, Ltd.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>La reconnaissance nationale</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est acceptée comme membre de la sororité Delta Sigma Theta et nommée membre à vie du National Council of Negro Women (en).
+Nikki Giovanni est régulièrement invitée à donner des conférences ou y animer des ateliers de création littéraire dans diverses universités américaines : la Texas Christian University, l'Université de l'Oregon, l'Université du Minnesota, l'Université de la Californie du Sud, l'Université de l'Indiana, la Johnson &amp; Wales University (en), etc. En 1987 elle devient professeur de littérature anglaise à la Virginia Tech,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 31 août 1969, elle donne naissance à son fils Thomas Watson Giovanni.
+En 1995, les médecins annoncent qu'elle est atteinte d'un cancer du poumon, après de nombreuses interventions, Nikki s'en sort et écrit  Blues: For All the Changes en 1999, qui contient des poèmes sur sa lutte contre le cancer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Regards sur son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec un corpus d'œuvres comprenant des poèmes défendant l'égalité raciale et des droits civiques, des recueils de poésies pour enfants et des pièces personnelles et introspectives, la polyvalence et la créativité caractérisent l'œuvre de Nikki Giovanni[37],[12],[1],[38],[39] ainsi que l'utilisation du vers libre, de la répétition, de la métaphore étendue.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec un corpus d'œuvres comprenant des poèmes défendant l'égalité raciale et des droits civiques, des recueils de poésies pour enfants et des pièces personnelles et introspectives, la polyvalence et la créativité caractérisent l'œuvre de Nikki Giovanni ainsi que l'utilisation du vers libre, de la répétition, de la métaphore étendue.
 Le vers libre est une forme qui crée son propre arrangement d'écriture unique. chaque poème est structuré en fonction d'effets rythmiques et des sujets abordés. Ce style proche de la conversation permet une plus grande proximité  avec les lecteurs.
 Nikki Giovanni utilise la répétition pour rythmer ses poèmes, elle répète souvent des lettres, des syllabes, des mots, des phrases ou des idées afin de valoriser un thème, de le renforcer.
 L'utilisation de la métaphore étendue permet de comparer deux choses différentes dans une même œuvre, style qui provoque la surprise, casse les associations ordinaires, figure de rupture qui permet de susciter des émotions chez les lecteurs.
@@ -570,34 +772,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nikki_Giovanni</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Œuvres (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Recueils de poèmes
-Black Judgement, Detroit, Michigan, Broadside Press, 1er juin 1968, 32 p. (ISBN 9780910296311),
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueils de poèmes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Black Judgement, Detroit, Michigan, Broadside Press, 1er juin 1968, 32 p. (ISBN 9780910296311),
 Black Feeling, Black Talk / Black Judgement, New York, William Morrow, 1970, 116 p. (ISBN 9780688252946, lire en ligne),
 Re:Creation, Detroit Michigan, Broadside Press, 1er janvier 1970, 56 p. (ISBN 9780910296472, lire en ligne),
 My House, New York, William Morrow (réimpr. 1 mars 1974) (1re éd. 1 novembre 1972), 102 p. (ISBN 9780688050214, lire en ligne),
@@ -612,9 +819,43 @@
 Bicycles, New York, William Morrow, 13 janvier 2009, 109 p. (ISBN 9780061726453),
 Quilting the Black-Eyed Pea, New York, William Morrow, 1er janvier 2002, 136 p. (ISBN 9780060099527, lire en ligne),
 Acolytes, New York, William Morrow, 23 janvier 2007, 152 p. (ISBN 9780061231315, lire en ligne),
-Chasing Utopia: A Hybrid, New York, William Morrow, 29 octobre 2013, 168 p. (ISBN 9780688156978, lire en ligne),
-Livres pour la jeunesse
-Spin a Soft Black Song: Poems for Children  (ill. George Martins), New York, Square Fish, Hill and Wang, Farrar, Straus &amp; Giroux (réimpr. 1987, 1988, 1989, 1990, 1994, 1995, 2012) (1re éd. 1971,), 68 p. (ISBN 9780374464691, lire en ligne),
+Chasing Utopia: A Hybrid, New York, William Morrow, 29 octobre 2013, 168 p. (ISBN 9780688156978, lire en ligne),</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Spin a Soft Black Song: Poems for Children  (ill. George Martins), New York, Square Fish, Hill and Wang, Farrar, Straus &amp; Giroux (réimpr. 1987, 1988, 1989, 1990, 1994, 1995, 2012) (1re éd. 1971,), 68 p. (ISBN 9780374464691, lire en ligne),
 Ego-Tripping and Other Poems for Young People  (préf. Virginia Hamilton, ill. George Ford), Lawrence Hill Books (réimpr. 1 novembre 1993) (1re éd. 1 décembre 1974), 80 p. (ISBN 9781556521898, lire en ligne),
 Vacation Time: Poems For Children, New York, William Morrow &amp; Company, 1er janvier 1980, 68 p. (ISBN 9780688036577, lire en ligne),
 Covers  (ill. Shonto Begay), Glenview, Illinois, ScottForesman, 1993, 12 p. (ISBN 9780673803801, lire en ligne),
@@ -627,9 +868,43 @@
 Lincoln and Douglass: An American Friendship  (ill. Bryan Collier), New York, Henry Holt and Co., 30 septembre 2008, 48 p. (ISBN 9780805082647, lire en ligne),
 Hip Hop Speaks to Children: A Celebration of Poetry with a Beat  (ill. Kristen Balouch &amp; Michele Noiset), Naperville, Illinois, Sourcebooks Jabberwocky, 1er octobre 2008, 88 p. (ISBN 9781402210488, lire en ligne),
 I Am Loved  (ill. Ashley Bryan), New York, Atheneum, 8 janvier 2018, 32 p. (ISBN 9781534404922),
-A Library  (ill. Erin K. Robinson), Huntington Woods, Michigan, Versify, 27 septembre 2021, 40 p. (ISBN 9780358387657),
-Essais, récits et conversations
-Gemini: An Extended Autobiographical Statement on My First Twenty-Five Years of Being a Black Poet, Indianapolis, Indiana, Bobbs-Merrill (réimpr. 1973) (1re éd. 1971), 172 p. (ISBN 9780670003259, lire en ligne),
+A Library  (ill. Erin K. Robinson), Huntington Woods, Michigan, Versify, 27 septembre 2021, 40 p. (ISBN 9780358387657),</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Essais, récits et conversations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Gemini: An Extended Autobiographical Statement on My First Twenty-Five Years of Being a Black Poet, Indianapolis, Indiana, Bobbs-Merrill (réimpr. 1973) (1re éd. 1971), 172 p. (ISBN 9780670003259, lire en ligne),
 Nikki Giovanni &amp; James Baldwin (préf. Ida Lewis, postface Orde Coombs), A Dialogue, Philadelphie, Pennsylvanie, Lippincott Raven, 1er janvier 1973, 128 p. (ISBN 9780397009169, lire en ligne),
 Nikki Giovanni &amp; Margaret Walker, A Poetic Equation: Conversations Between Nikki Giovanni and Margaret Walker, Washington (district de Columbia), Howard University Press, 1er avril 1974, 148 p. (ISBN 9780882580036),
 Virginia C. Fowler (dir.), Conversations with Nikki Giovanni, Jackson, Mississippi, University Press of Mississippi, 1er décembre 1992, 256 p. (ISBN 9780878055869, lire en ligne),
@@ -637,54 +912,124 @@
 Life Vol. 1: Through Black Eyes, Houston, Texas, Rom Publisher, 28 janvier 1996, 168 p. (ISBN 9780965023818),
 On My Journey Now: Looking at African-American History Through the Spirituals  (préf. Arthur C. Jones), Cambridge, Massachusetts, Candlewick Press, 13 février 2007, 136 p. (ISBN 9780763628857, lire en ligne),
 A Good Cry: What We Learn From Tears and Laughter, New York, William Morrow, 24 octobre 2017, 111 p. (ISBN 9780062399458),
-Nikki Giovanni &amp; Glory Edim, Being Alive Is A Good Idea: A Wide-Ranging Conversation with Nikki Giovanni &amp; Glory Edim, Independent Bookstore Day Publishing, 2021, 36 p. (ISBN 9781732970465),
-Anthologies et compilations
-Sacred Cows-- And Other Edibles, New York, William Morrow, 1er février 1988, 176 p. (ISBN 9780688043339, lire en ligne),
+Nikki Giovanni &amp; Glory Edim, Being Alive Is A Good Idea: A Wide-Ranging Conversation with Nikki Giovanni &amp; Glory Edim, Independent Bookstore Day Publishing, 2021, 36 p. (ISBN 9781732970465),</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Anthologies et compilations</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sacred Cows-- And Other Edibles, New York, William Morrow, 1er février 1988, 176 p. (ISBN 9780688043339, lire en ligne),
 The Selected Poems, 1968-1995  (ill. Virginia Fowler), New York, William Morrow, 11 janvier 1996, 310 p. (ISBN 9780688140472, lire en ligne),
 The Collected Poetry, 1968-1998  (préf. Virginia C. Fowler), New York, William Morrow (réimpr. 23 janvier 2007) (1re éd. 25 novembre 2003), 504 p. (ISBN 9780060724290, lire en ligne),
 The Prosaic Soul of Nikki Giovanni, New York, Perennial, 16 décembre 2003, 596 p. (ISBN 9780060541347, lire en ligne),
-Make Me Rain: Poems &amp; Prose, New York, William Morrow, 20 octobre 2020, 124 p. (ISBN 9780062995285),
-Éditrice
-Nikki Giovanni (dir.), Grand Fathers: Reminiscences, Poems, Recipes, and Photos of the Keepers of Our Traditions, New York, Henry Holt and Co., 15 juin 1999, 262 p. (ISBN 9780805054842, lire en ligne),
+Make Me Rain: Poems &amp; Prose, New York, William Morrow, 20 octobre 2020, 124 p. (ISBN 9780062995285),</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres (sélection)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Éditrice</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nikki Giovanni (dir.), Grand Fathers: Reminiscences, Poems, Recipes, and Photos of the Keepers of Our Traditions, New York, Henry Holt and Co., 15 juin 1999, 262 p. (ISBN 9780805054842, lire en ligne),
 Nikki Giovanni &amp;  Randall Kennedy, Best African American Fiction 2010, New York, One World / Ballantine Books, 29 décembre 2009, 344 p. (ISBN 9780553806908, lire en ligne),
 Nikki Giovanni (dir.), The 100 Best African American Poems, Naperville, Illinois, Sourcebooks MediaFusion, 1er novembre 2010, 264 p. (ISBN 9781402221118, lire en ligne),</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nikki_Giovanni</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nikki_Giovanni</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Enregistrements, Discographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>1975 : Ego Tripping, éd. Smithsonian Folkways Recordings,
-1993 : Like A Ripple On A Pond, Vol.1[40], éd. Collectables,
-1993 : Truth Is On Its Way[41], Vol.2, éd. Collectables,
+1993 : Like A Ripple On A Pond, Vol.1, éd. Collectables,
+1993 : Truth Is On Its Way, Vol.2, éd. Collectables,
 1997 : Jackie Robinson Tribute: Stealing Home, éd. Sony Music,
 1997 : In Philadelphia, éd. Collectables,
 2002 : Giovanni Poetry Collection, éd. Caedmon,  (ISBN 9780060514297)
 2007 : The Reason I Like Chocolate, éd. Smithsonian Folkways Recordings,
-2008 : The Way I Feel[42], éd. I Am Digital, 2008
+2008 : The Way I Feel, éd. I Am Digital, 2008
 2008 : An Evening with Nikki Giovanni, éd. I Am Digital,
 2008 : Poems, éd. I Am Digital, 2008
 2009 : Only The Best Of Nikki Giovanni, éd. Collectables,
